--- a/txxxxt/ProducthuntProductCopyCheck.xlsx
+++ b/txxxxt/ProducthuntProductCopyCheck.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Profile_Url</t>
   </si>
   <si>
+    <t>New Column</t>
+  </si>
+  <si>
     <t>Live Video Calling SDK by Dyte</t>
   </si>
   <si>
@@ -49,6 +52,24 @@
   </si>
   <si>
     <t>https://www.producthunt.com/@abhishek_kankani, https://www.producthunt.com/@palash_golecha, https://www.producthunt.com/@kushagra_vaish</t>
+  </si>
+  <si>
+    <t>[{'Name': 'Abhishek Kankani', 'Desgination': 'CEO &amp; Co-founder @Dyte', 'Hashtag_value': '#3253855', 'Followers_value': '45 followers', 'Following_value': '18 following', 'Twitter Url': '', 'Linkedin Url': ''}, {'Name': 'Palash Golecha', 'Desgination': 'Co-founder dyte.io', 'Hashtag_value': '#3640660', 'Followers_value': '23 followers', 'Following_value': '7 following', 'Twitter Url': '', 'Linkedin Url': ''}, {'Name': 'Kushagra Vaish', 'Desgination': 'Maker and reluctant leader', 'Hashtag_value': '#3102152', 'Followers_value': '27 followers', 'Following_value': '0 following', 'Twitter Url': '', 'Linkedin Url': ''}]</t>
+  </si>
+  <si>
+    <t>LINER AI</t>
+  </si>
+  <si>
+    <t>A trustworthy ChatGPT search assistant</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/liner-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@brianwoo, https://www.producthunt.com/@jinukim21, https://www.producthunt.com/@jinukim, https://www.producthunt.com/@sungmoon, https://www.producthunt.com/@mynhpark</t>
+  </si>
+  <si>
+    <t>[{'Name': 'Brian Woo', 'Desgination': '', 'Hashtag_value': '#3630467', 'Followers_value': '285 followers', 'Following_value': '98 following', 'Twitter Url': 'https://twitter.com/wcm0505', 'Linkedin Url': ''}, {'Name': 'Jinu Kim', 'Desgination': 'LINER CEO', 'Hashtag_value': '#247375', 'Followers_value': '89 followers', 'Following_value': '10 following', 'Twitter Url': 'https://twitter.com/jinukim21', 'Linkedin Url': ''}, {'Name': 'Jinu Kim', 'Desgination': '', 'Hashtag_value': '#1545376', 'Followers_value': '8 followers', 'Following_value': '0 following', 'Twitter Url': '', 'Linkedin Url': ''}, {'Name': 'Sung Cho', 'Desgination': '', 'Hashtag_value': '#23565', 'Followers_value': '844 followers', 'Following_value': '33 following', 'Twitter Url': 'https://twitter.com/sungmoon', 'Linkedin Url': ''}, {'Name': 'Min Park', 'Desgination': 'https://nexybit.com', 'Hashtag_value': '#473726', 'Followers_value': '119 followers', 'Following_value': '14 following', 'Twitter Url': 'https://twitter.com/mynhpark', 'Linkedin Url': ''}]</t>
   </si>
 </sst>
 </file>
@@ -67,7 +88,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -412,23 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,29 +459,57 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>375989</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1022</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>377157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/txxxxt/ProducthuntProductCopyCheck.xlsx
+++ b/txxxxt/ProducthuntProductCopyCheck.xlsx
@@ -435,10 +435,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
